--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>980933.5077492269</v>
+        <v>973024.2220858854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284524</v>
+        <v>8729695.796941048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184533.616287898</v>
+        <v>4135159.406663877</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10062288.31244521</v>
+        <v>10063546.69206733</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>395.0053657698354</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.8697052971874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V4" t="n">
-        <v>49.43931059510331</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.2798551468628</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.37995006892091</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>94.63926978364032</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>86.20316644646576</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>4.800311936799489</v>
       </c>
       <c r="I10" t="n">
-        <v>104.6390067882883</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>208.690255997874</v>
       </c>
       <c r="G11" t="n">
-        <v>286.4219379548096</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285976</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668619</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>145.2481701217134</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>89.00910616898162</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>168.1158122680963</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>86.62039302602592</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.33742371513345</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>163.6894458735308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>48.37445137896839</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.41254713315928</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>176.7697821123584</v>
+        <v>218.6942369759171</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.86209348694715</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>51.56887637424953</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3007,13 +3007,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>290.5568780276061</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>10.59564018262439</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>135.8241034250915</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247757</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>6.380068175847831</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>68.85005436466994</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>208.0428271780488</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>86.63890788798618</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>44.49086133147608</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.49367430371706</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>48.43260517378793</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>306.3938256832469</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.97759865613162</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4153,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4192,13 +4192,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>117.3713495108167</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.9969330253591</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>797.9969330253591</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D2" t="n">
-        <v>439.7312344186087</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>863.9242055694017</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>452.9383007797941</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>797.9969330253591</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C5" t="n">
-        <v>567.286643657864</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D5" t="n">
-        <v>567.286643657864</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E5" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>181.4983910596198</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5382038240415</v>
+        <v>666.0806798081627</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5382038240415</v>
+        <v>519.1907323102523</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5382038240415</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5382038240415</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>715.9594172515172</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>908.9468494113166</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>908.9468494113166</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>908.9468494113166</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>908.9468494113166</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1249.690811658358</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2610.075185516742</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2356.383482261893</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2025.320594918322</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.551939648208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1299.086181387128</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>908.9468494113166</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="D10" t="n">
-        <v>482.5004363780324</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="E10" t="n">
-        <v>482.5004363780324</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="F10" t="n">
-        <v>482.5004363780324</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="G10" t="n">
-        <v>313.8935913734158</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="H10" t="n">
-        <v>159.6389482731809</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>201.1780441415619</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1879.829578210439</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C11" t="n">
-        <v>1510.867061270028</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.601362663277</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="E11" t="n">
-        <v>766.813110065033</v>
+        <v>277.3103548138743</v>
       </c>
       <c r="F11" t="n">
-        <v>355.8272052754255</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
         <v>66.5121164321834</v>
@@ -5039,10 +5039,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5066,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520487</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2656.568750250373</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2656.568750250373</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>2266.429418274561</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.5121164321834</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1148.130683918831</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C14" t="n">
-        <v>779.1681669784198</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D14" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3235.697633559694</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2982.16715683353</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2651.104269489959</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2298.335614219845</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>1924.869855958765</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>1534.730523982953</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5121164321834</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5121164321834</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D16" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
         <v>66.5121164321834</v>
@@ -5473,13 +5473,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
@@ -5516,13 +5516,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5552,13 +5552,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1562.149067134515</v>
+        <v>1010.172844004836</v>
       </c>
       <c r="C19" t="n">
-        <v>1562.149067134515</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>1562.149067134515</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>1562.149067134515</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>1562.149067134515</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>1562.149067134515</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H19" t="n">
-        <v>1562.149067134515</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3257.588221896914</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>3065.90233772374</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>2844.135722293267</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>2555.03285541891</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V19" t="n">
-        <v>2300.348367213023</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W19" t="n">
-        <v>2010.931197176063</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X19" t="n">
-        <v>1782.941646278045</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="Y19" t="n">
-        <v>1562.149067134515</v>
+        <v>1191.821308835076</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,16 +5738,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5768,34 +5768,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,13 +5820,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.3640755286979</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1310.211840437446</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.794670400485</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>792.8051195024677</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>572.0125403589376</v>
+        <v>343.0033510423848</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6057,22 +6057,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6181,16 +6181,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.767516148151</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>722.4071781934679</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862918</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>3792.254215360699</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>4523.367234213833</v>
       </c>
       <c r="W28" t="n">
-        <v>1701.658977898817</v>
+        <v>4233.950064176873</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>4013.046794504229</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>3792.254215360699</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143013</v>
@@ -6449,13 +6449,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6467,13 +6467,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>244.9764857454526</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>244.9764857454526</v>
       </c>
       <c r="H31" t="n">
         <v>192.886711630049</v>
@@ -6655,16 +6655,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.957642384228</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1163.957642384228</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.957642384228</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143013</v>
@@ -6686,13 +6686,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6704,16 +6704,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107236</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.558518914074</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C35" t="n">
-        <v>1946.596001973662</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D35" t="n">
-        <v>1588.330303366912</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E35" t="n">
-        <v>1202.542050768667</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F35" t="n">
-        <v>791.5561459790599</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G35" t="n">
-        <v>376.4836958240564</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H35" t="n">
         <v>82.99189983657546</v>
@@ -6935,52 +6935,52 @@
         <v>82.99189983657546</v>
       </c>
       <c r="J35" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K35" t="n">
-        <v>926.5943629309004</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L35" t="n">
-        <v>1377.628576179309</v>
+        <v>1224.130266754209</v>
       </c>
       <c r="M35" t="n">
-        <v>1911.160480851234</v>
+        <v>1757.662171426134</v>
       </c>
       <c r="N35" t="n">
-        <v>2457.939297910016</v>
+        <v>2304.440988484916</v>
       </c>
       <c r="O35" t="n">
-        <v>2960.911768789353</v>
+        <v>2853.685379641784</v>
       </c>
       <c r="P35" t="n">
-        <v>3674.266856236299</v>
+        <v>3567.040467088729</v>
       </c>
       <c r="Q35" t="n">
-        <v>4090.57792527197</v>
+        <v>4025.518669597717</v>
       </c>
       <c r="R35" t="n">
         <v>4149.594991828772</v>
       </c>
       <c r="S35" t="n">
-        <v>4149.594991828772</v>
+        <v>4039.304323355867</v>
       </c>
       <c r="T35" t="n">
-        <v>4149.594991828772</v>
+        <v>3833.32657574009</v>
       </c>
       <c r="U35" t="n">
-        <v>4149.594991828772</v>
+        <v>3833.32657574009</v>
       </c>
       <c r="V35" t="n">
-        <v>3818.532104485202</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="W35" t="n">
-        <v>3465.763449215087</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.297690954008</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y35" t="n">
-        <v>2702.158358978196</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>82.99189983657546</v>
       </c>
       <c r="J36" t="n">
-        <v>176.6691693271926</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K36" t="n">
-        <v>414.9333683075398</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L36" t="n">
-        <v>781.6315286202051</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M36" t="n">
         <v>1228.907853842521</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.99189983657546</v>
+        <v>1001.746663948152</v>
       </c>
       <c r="C37" t="n">
-        <v>82.99189983657546</v>
+        <v>832.8104810202448</v>
       </c>
       <c r="D37" t="n">
-        <v>82.99189983657546</v>
+        <v>682.693841607909</v>
       </c>
       <c r="E37" t="n">
-        <v>82.99189983657546</v>
+        <v>534.7807480255159</v>
       </c>
       <c r="F37" t="n">
-        <v>82.99189983657546</v>
+        <v>387.8908005276055</v>
       </c>
       <c r="G37" t="n">
-        <v>82.99189983657546</v>
+        <v>220.1879639023245</v>
       </c>
       <c r="H37" t="n">
         <v>82.99189983657546</v>
@@ -7117,28 +7117,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R37" t="n">
-        <v>1943.774331492885</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S37" t="n">
-        <v>1752.088447319711</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="T37" t="n">
-        <v>1546.627019825567</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="U37" t="n">
-        <v>1257.52415295121</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="V37" t="n">
-        <v>1002.839664745323</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="W37" t="n">
-        <v>713.4224947083626</v>
+        <v>1632.177258819939</v>
       </c>
       <c r="X37" t="n">
-        <v>485.4329438103453</v>
+        <v>1404.187707921921</v>
       </c>
       <c r="Y37" t="n">
-        <v>264.6403646668152</v>
+        <v>1183.395128778391</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>82.99189983657546</v>
       </c>
       <c r="J38" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K38" t="n">
-        <v>884.4272294575831</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L38" t="n">
-        <v>1335.461442705992</v>
+        <v>1354.156350716909</v>
       </c>
       <c r="M38" t="n">
-        <v>1868.993347377917</v>
+        <v>2332.706653546737</v>
       </c>
       <c r="N38" t="n">
-        <v>2415.772164436699</v>
+        <v>2879.48547060552</v>
       </c>
       <c r="O38" t="n">
-        <v>2918.744635316036</v>
+        <v>3382.457941484857</v>
       </c>
       <c r="P38" t="n">
-        <v>3632.099722762982</v>
+        <v>3777.232307842035</v>
       </c>
       <c r="Q38" t="n">
-        <v>4090.57792527197</v>
+        <v>4025.518669597717</v>
       </c>
       <c r="R38" t="n">
         <v>4149.594991828772</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2526.08530377654</v>
+        <v>958.0236378855004</v>
       </c>
       <c r="C39" t="n">
-        <v>2351.632274495413</v>
+        <v>783.5706086043734</v>
       </c>
       <c r="D39" t="n">
-        <v>2202.697864834162</v>
+        <v>634.6361989431222</v>
       </c>
       <c r="E39" t="n">
-        <v>2043.460409828706</v>
+        <v>475.3987439376667</v>
       </c>
       <c r="F39" t="n">
-        <v>1896.925851855591</v>
+        <v>328.8641859645517</v>
       </c>
       <c r="G39" t="n">
-        <v>1760.56275168821</v>
+        <v>192.5010857971698</v>
       </c>
       <c r="H39" t="n">
-        <v>1670.060857326077</v>
+        <v>101.9991914350373</v>
       </c>
       <c r="I39" t="n">
-        <v>1651.053565727615</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J39" t="n">
-        <v>1744.730835218232</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>1982.995034198579</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>2349.693194511245</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M39" t="n">
-        <v>2796.96951973356</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N39" t="n">
-        <v>3270.492563288015</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>3681.45384270607</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P39" t="n">
-        <v>3991.953434182173</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q39" t="n">
-        <v>4149.594991828772</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R39" t="n">
-        <v>4149.450638421288</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S39" t="n">
-        <v>4020.012751914768</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T39" t="n">
-        <v>3827.369751592624</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U39" t="n">
-        <v>3599.301904727039</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V39" t="n">
-        <v>3364.149796495296</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W39" t="n">
-        <v>3109.912439767095</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X39" t="n">
-        <v>2902.060939561562</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y39" t="n">
-        <v>2694.300640796608</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>258.3725960734196</v>
+        <v>864.5505998824026</v>
       </c>
       <c r="C40" t="n">
-        <v>89.43641314551266</v>
+        <v>695.6144169544957</v>
       </c>
       <c r="D40" t="n">
-        <v>89.43641314551266</v>
+        <v>545.49777754216</v>
       </c>
       <c r="E40" t="n">
-        <v>89.43641314551266</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="F40" t="n">
-        <v>89.43641314551266</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="G40" t="n">
         <v>82.99189983657546</v>
@@ -7354,28 +7354,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1943.774331492885</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S40" t="n">
-        <v>1943.774331492885</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="T40" t="n">
-        <v>1722.007716062411</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="U40" t="n">
-        <v>1432.904849188054</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="V40" t="n">
-        <v>1178.220360982167</v>
+        <v>1784.39836479115</v>
       </c>
       <c r="W40" t="n">
-        <v>888.8031909452068</v>
+        <v>1494.98119475419</v>
       </c>
       <c r="X40" t="n">
-        <v>660.8136400471894</v>
+        <v>1266.991643856172</v>
       </c>
       <c r="Y40" t="n">
-        <v>440.0210609036593</v>
+        <v>1046.199064712642</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.759626099227</v>
+        <v>2022.066722926593</v>
       </c>
       <c r="C41" t="n">
-        <v>1745.759626099227</v>
+        <v>1653.104205986181</v>
       </c>
       <c r="D41" t="n">
-        <v>1387.493927492477</v>
+        <v>1294.838507379431</v>
       </c>
       <c r="E41" t="n">
-        <v>1001.705674894233</v>
+        <v>909.0502547811866</v>
       </c>
       <c r="F41" t="n">
-        <v>590.7197701046252</v>
+        <v>498.064349991579</v>
       </c>
       <c r="G41" t="n">
-        <v>380.5755002278082</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="H41" t="n">
         <v>82.99189983657546</v>
@@ -7409,52 +7409,52 @@
         <v>82.99189983657546</v>
       </c>
       <c r="J41" t="n">
-        <v>439.2766798159539</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K41" t="n">
-        <v>1036.207611850539</v>
+        <v>605.6904044854474</v>
       </c>
       <c r="L41" t="n">
-        <v>1487.241825098948</v>
+        <v>1470.209220138802</v>
       </c>
       <c r="M41" t="n">
-        <v>2020.773729770872</v>
+        <v>2122.514812793432</v>
       </c>
       <c r="N41" t="n">
-        <v>2567.552546829655</v>
+        <v>2669.293629852214</v>
       </c>
       <c r="O41" t="n">
-        <v>3447.517197159109</v>
+        <v>3172.266100731551</v>
       </c>
       <c r="P41" t="n">
-        <v>3842.291563516288</v>
+        <v>3567.040467088729</v>
       </c>
       <c r="Q41" t="n">
-        <v>4090.57792527197</v>
+        <v>4025.518669597717</v>
       </c>
       <c r="R41" t="n">
         <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4039.304323355867</v>
+        <v>4062.080943457069</v>
       </c>
       <c r="T41" t="n">
-        <v>3833.32657574009</v>
+        <v>3856.103195841291</v>
       </c>
       <c r="U41" t="n">
-        <v>3579.796099013926</v>
+        <v>3856.103195841291</v>
       </c>
       <c r="V41" t="n">
-        <v>3248.733211670355</v>
+        <v>3525.040308497721</v>
       </c>
       <c r="W41" t="n">
-        <v>2895.964556400241</v>
+        <v>3172.271653227606</v>
       </c>
       <c r="X41" t="n">
-        <v>2522.498798139161</v>
+        <v>2798.805894966526</v>
       </c>
       <c r="Y41" t="n">
-        <v>2132.359466163349</v>
+        <v>2408.666562990715</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>958.0236378855004</v>
+        <v>958.0236378855008</v>
       </c>
       <c r="C42" t="n">
-        <v>783.5706086043734</v>
+        <v>783.5706086043738</v>
       </c>
       <c r="D42" t="n">
-        <v>634.6361989431222</v>
+        <v>634.6361989431225</v>
       </c>
       <c r="E42" t="n">
-        <v>475.3987439376667</v>
+        <v>475.3987439376669</v>
       </c>
       <c r="F42" t="n">
-        <v>328.8641859645517</v>
+        <v>328.8641859645519</v>
       </c>
       <c r="G42" t="n">
-        <v>192.5010857971698</v>
+        <v>192.50108579717</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9991914350373</v>
+        <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
         <v>82.99189983657546</v>
@@ -7491,10 +7491,10 @@
         <v>176.6691693271928</v>
       </c>
       <c r="K42" t="n">
-        <v>414.9333683075399</v>
+        <v>414.9333683075398</v>
       </c>
       <c r="L42" t="n">
-        <v>781.6315286202052</v>
+        <v>781.6315286202051</v>
       </c>
       <c r="M42" t="n">
         <v>1228.907853842521</v>
@@ -7521,7 +7521,7 @@
         <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2031.240238835999</v>
+        <v>2031.240238836</v>
       </c>
       <c r="V42" t="n">
         <v>1796.088130604257</v>
@@ -7530,7 +7530,7 @@
         <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1333.999273670522</v>
+        <v>1333.999273670523</v>
       </c>
       <c r="Y42" t="n">
         <v>1126.238974905569</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>610.7883701430935</v>
+        <v>469.127755874016</v>
       </c>
       <c r="C43" t="n">
-        <v>441.8521872151866</v>
+        <v>469.127755874016</v>
       </c>
       <c r="D43" t="n">
-        <v>396.9119232439987</v>
+        <v>469.127755874016</v>
       </c>
       <c r="E43" t="n">
-        <v>396.9119232439987</v>
+        <v>469.127755874016</v>
       </c>
       <c r="F43" t="n">
-        <v>396.9119232439987</v>
+        <v>469.127755874016</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2090866187177</v>
+        <v>301.4249192487349</v>
       </c>
       <c r="H43" t="n">
-        <v>82.99189983657546</v>
+        <v>155.2077324665927</v>
       </c>
       <c r="I43" t="n">
         <v>82.99189983657546</v>
@@ -7603,16 +7603,16 @@
         <v>1241.218965014881</v>
       </c>
       <c r="V43" t="n">
-        <v>1241.218965014881</v>
+        <v>986.5344768089939</v>
       </c>
       <c r="W43" t="n">
-        <v>1241.218965014881</v>
+        <v>697.1173067720333</v>
       </c>
       <c r="X43" t="n">
-        <v>1013.229414116863</v>
+        <v>469.127755874016</v>
       </c>
       <c r="Y43" t="n">
-        <v>792.4368349733332</v>
+        <v>469.127755874016</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1215.881273373637</v>
+        <v>1624.05528796997</v>
       </c>
       <c r="C44" t="n">
-        <v>846.9187564332258</v>
+        <v>1624.05528796997</v>
       </c>
       <c r="D44" t="n">
-        <v>488.6530578264753</v>
+        <v>1265.78958936322</v>
       </c>
       <c r="E44" t="n">
-        <v>102.864805228231</v>
+        <v>880.0013367649756</v>
       </c>
       <c r="F44" t="n">
-        <v>102.864805228231</v>
+        <v>469.015431975368</v>
       </c>
       <c r="G44" t="n">
-        <v>102.864805228231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>242.8221127793899</v>
@@ -7652,46 +7652,46 @@
         <v>576.6414864692364</v>
       </c>
       <c r="L44" t="n">
-        <v>1027.675699717645</v>
+        <v>576.6414864692364</v>
       </c>
       <c r="M44" t="n">
-        <v>1561.20760438957</v>
+        <v>945.3200084104401</v>
       </c>
       <c r="N44" t="n">
-        <v>2107.986421448352</v>
+        <v>1492.098825469222</v>
       </c>
       <c r="O44" t="n">
-        <v>2107.986421448352</v>
+        <v>1995.071296348559</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.845662705737</v>
+        <v>2389.845662705738</v>
       </c>
       <c r="Q44" t="n">
-        <v>2638.132024461419</v>
+        <v>2638.13202446142</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2366.086203674651</v>
+        <v>2387.660378206862</v>
       </c>
       <c r="X44" t="n">
-        <v>1992.620445413571</v>
+        <v>2014.194619945782</v>
       </c>
       <c r="Y44" t="n">
-        <v>1602.481113437759</v>
+        <v>1624.05528796997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>928.9747198692897</v>
+        <v>928.9747198692896</v>
       </c>
       <c r="C45" t="n">
-        <v>754.5216905881628</v>
+        <v>754.5216905881626</v>
       </c>
       <c r="D45" t="n">
-        <v>605.5872809269115</v>
+        <v>605.5872809269114</v>
       </c>
       <c r="E45" t="n">
         <v>446.3498259214559</v>
@@ -7716,22 +7716,22 @@
         <v>299.8152679483409</v>
       </c>
       <c r="G45" t="n">
-        <v>163.4521677809589</v>
+        <v>163.452167780959</v>
       </c>
       <c r="H45" t="n">
-        <v>72.95027341882647</v>
+        <v>72.9502734188265</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>147.6202513109818</v>
       </c>
       <c r="K45" t="n">
-        <v>385.884450291329</v>
+        <v>385.8844502913289</v>
       </c>
       <c r="L45" t="n">
-        <v>752.5826106039943</v>
+        <v>752.5826106039942</v>
       </c>
       <c r="M45" t="n">
         <v>1199.85893582631</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.2739548889973</v>
+        <v>367.8630052277877</v>
       </c>
       <c r="C46" t="n">
-        <v>482.3377719610904</v>
+        <v>367.8630052277877</v>
       </c>
       <c r="D46" t="n">
-        <v>482.3377719610904</v>
+        <v>367.8630052277877</v>
       </c>
       <c r="E46" t="n">
-        <v>482.3377719610904</v>
+        <v>367.8630052277877</v>
       </c>
       <c r="F46" t="n">
-        <v>465.1886824094423</v>
+        <v>367.8630052277877</v>
       </c>
       <c r="G46" t="n">
-        <v>297.4858457841613</v>
+        <v>200.1601686025067</v>
       </c>
       <c r="H46" t="n">
-        <v>151.2686590020191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>99.06561426729999</v>
+        <v>99.06561426730002</v>
       </c>
       <c r="K46" t="n">
         <v>303.0527972161764</v>
@@ -7828,28 +7828,28 @@
         <v>1914.725413476674</v>
       </c>
       <c r="R46" t="n">
-        <v>1824.894956234202</v>
+        <v>1914.725413476674</v>
       </c>
       <c r="S46" t="n">
-        <v>1633.209072061028</v>
+        <v>1723.0395293035</v>
       </c>
       <c r="T46" t="n">
-        <v>1411.442456630554</v>
+        <v>1501.272913873026</v>
       </c>
       <c r="U46" t="n">
-        <v>1122.339589756198</v>
+        <v>1212.170046998669</v>
       </c>
       <c r="V46" t="n">
-        <v>1122.339589756198</v>
+        <v>957.4855587927826</v>
       </c>
       <c r="W46" t="n">
-        <v>832.922419719237</v>
+        <v>668.0683887558221</v>
       </c>
       <c r="X46" t="n">
-        <v>832.922419719237</v>
+        <v>549.5114700580274</v>
       </c>
       <c r="Y46" t="n">
-        <v>832.922419719237</v>
+        <v>549.5114700580274</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>31.78975210768607</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>466.9610371613041</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
-        <v>29.61882225792147</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>105.1996354507086</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.253057640025</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189929</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,10 +10361,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>46.73931341164712</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.7219265454433</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>281.5523484567026</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>131.3394787502016</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7692508532711</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>119.9734222047524</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>18.77880425095958</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.3682333588662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6983327287247</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>25.65146109799848</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22832,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>224.2108912957898</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>97.05401257764827</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.32635200869791</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,25 +22984,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>88.92504442304141</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,16 +23072,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>126.4486966685002</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,10 +23176,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.9117847324331</v>
       </c>
       <c r="I10" t="n">
-        <v>18.62755109112871</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23224,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>198.1857897438375</v>
       </c>
       <c r="G11" t="n">
-        <v>124.4997876986438</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>209.4348714989696</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>114.9088639706385</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>181.1251564493167</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>80.62642807260191</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.59472895491388</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>88.44819745029724</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>170.2102019731264</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.1104512034317</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48.93987327667872</v>
+        <v>7.015418413120045</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.9698866949902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.18613854007125</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.050886359714355</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>317.1566182875105</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>8.930911489229288</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>159.6457400831804</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>183.2875889591581</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>202.8788984754046</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>22.54885390018966</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>104.1246116867363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>24.85874610612103</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>246.1751592135325</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25922,10 +25922,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>42.84714303416609</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>128.4434493667996</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>108.3383058782204</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764829.5403202327</v>
+        <v>766138.2551272397</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766138.2551272399</v>
+        <v>766138.2551272397</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823272.5892503085</v>
+        <v>823272.5892503086</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>823272.5892503087</v>
+        <v>823272.5892503085</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980765.2139519755</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980765.2139519757</v>
+        <v>980765.2139519756</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912619.9563854377</v>
+        <v>912619.9563854379</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912619.9563854377</v>
+        <v>912619.9563854379</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912619.9563854379</v>
+        <v>912619.956385438</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765031.3019140611</v>
+        <v>765031.3019140612</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>328930.1971346176</v>
       </c>
       <c r="D2" t="n">
         <v>328930.1971346178</v>
@@ -26323,19 +26323,19 @@
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="I2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756815</v>
@@ -26347,13 +26347,13 @@
         <v>410096.0422132348</v>
       </c>
       <c r="N2" t="n">
+        <v>410096.0422132348</v>
+      </c>
+      <c r="O2" t="n">
         <v>410096.0422132349</v>
       </c>
-      <c r="O2" t="n">
-        <v>410096.0422132348</v>
-      </c>
       <c r="P2" t="n">
-        <v>348402.885505566</v>
+        <v>348402.8855055661</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>445640.2295734512</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.74401294849</v>
+        <v>97970.74401294843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892843</v>
+        <v>48993.41451395673</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395673</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142413</v>
+        <v>18583.58934587792</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142412</v>
+        <v>18583.58934587792</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142412</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278143</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26485,7 +26485,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26509,7 @@
         <v>86830.97594873124</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.79825641087</v>
+        <v>64753.79825641088</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424039.6098195489</v>
+        <v>-426135.4710420945</v>
       </c>
       <c r="C6" t="n">
-        <v>165928.2693949955</v>
+        <v>-4071.650346821116</v>
       </c>
       <c r="D6" t="n">
-        <v>9052.083861799445</v>
+        <v>192374.7374498143</v>
       </c>
       <c r="E6" t="n">
-        <v>-150206.2383749682</v>
+        <v>-150350.5566138371</v>
       </c>
       <c r="F6" t="n">
-        <v>295433.9911984829</v>
+        <v>295289.6729596142</v>
       </c>
       <c r="G6" t="n">
-        <v>295433.991198483</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="H6" t="n">
-        <v>214695.1612068227</v>
+        <v>213873.8639561238</v>
       </c>
       <c r="I6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690721</v>
       </c>
       <c r="J6" t="n">
-        <v>136242.6860271783</v>
+        <v>135421.3887764793</v>
       </c>
       <c r="K6" t="n">
-        <v>312665.9052197712</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="L6" t="n">
-        <v>312665.9052197712</v>
+        <v>311844.6079690721</v>
       </c>
       <c r="M6" t="n">
-        <v>305209.8530930794</v>
+        <v>304681.4769186256</v>
       </c>
       <c r="N6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186256</v>
       </c>
       <c r="O6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="P6" t="n">
-        <v>278366.889917746</v>
+        <v>278222.5716788771</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26829,7 +26829,7 @@
         <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>496.3006002552332</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026377</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026377</v>
+        <v>363.1114752026375</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34372,19 +34372,19 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>602.74878064263</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>515.9393000556578</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802097</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>228.0869368470622</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>667.6244125680362</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>568.5399380881482</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>442.3909220061091</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>384.0473624437445</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>684.705678411325</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,10 +37081,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>554.7923142998662</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>420.5162313491628</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>618.7436350121031</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>586.9295931425338</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>602.9605374086716</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>658.8945380349792</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38020,19 +38020,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>372.4025474153573</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>284.7063043003882</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1054460.872372492</v>
+        <v>1030142.544733868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10046616.77063184</v>
+        <v>10265235.79178044</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3527040.682560007</v>
+        <v>1054207.678255311</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10140749.42742731</v>
+        <v>11213959.70047849</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.37131959271623</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>60.89193202864662</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>353.5759586385877</v>
+        <v>303.2961965377413</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.9722865630709</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>35.30200844132176</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>162.6159201417017</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>104.6737263919366</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.2467153382112</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>192.0524966157161</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>42.24406744395606</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>127.5317086759479</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>56.25802410840445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.02367921202186</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>85.17289288835127</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.9805282638786</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>3.132302579345401</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>153.9036548888904</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3547602668159</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>81.00764490926358</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374541</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>86.72290329780712</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>86.27179222793767</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>89.97676987683262</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.32106446353473</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374741</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>81.37259901119612</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>38.03682829123735</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.32106446353473</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374741</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.6698097633063</v>
+        <v>162.8432779070494</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.3384883584589</v>
@@ -3757,7 +3757,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>233.2715658672596</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081952</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561454</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>40.65078087823001</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -3918,7 +3918,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440896</v>
+        <v>18.56378395870779</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108346</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.92873806063953</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1310.833184497836</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C2" t="n">
-        <v>1310.833184497836</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>952.5674858910851</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>952.5674858910851</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2643.238667187196</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2467.061179501366</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2248.426512473429</v>
+        <v>2404.435911813748</v>
       </c>
       <c r="U2" t="n">
-        <v>1994.66472711152</v>
+        <v>2150.674126451839</v>
       </c>
       <c r="V2" t="n">
-        <v>1663.60183976795</v>
+        <v>2150.674126451839</v>
       </c>
       <c r="W2" t="n">
-        <v>1310.833184497836</v>
+        <v>2150.674126451839</v>
       </c>
       <c r="X2" t="n">
-        <v>1310.833184497836</v>
+        <v>1777.208368190759</v>
       </c>
       <c r="Y2" t="n">
-        <v>1310.833184497836</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1487.242648509747</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>1118.280131569335</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>760.0144329625848</v>
       </c>
       <c r="E5" t="n">
-        <v>1309.714918859356</v>
+        <v>374.2261803643406</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4652,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.9054987607761</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1741.379601184342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3051.056647942627</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2797.526171216464</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.526171216464</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>664.8171257877602</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>664.8171257877602</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>514.7004863754245</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>366.7873927930314</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5229,22 +5229,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>846.465590618</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1986.901740067214</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2713.136153598409</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.367498328294</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>1986.901740067214</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.901740067214</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1197.774700787707</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796256</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>821.1650657389509</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>821.1650657389509</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>821.1650657389509</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.5851666348717</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C19" t="n">
-        <v>657.6489837069648</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D19" t="n">
-        <v>507.5323442946291</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E19" t="n">
-        <v>359.619250712236</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143256</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W19" t="n">
-        <v>1457.015761506659</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X19" t="n">
-        <v>1229.026210608642</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y19" t="n">
-        <v>1008.233631465111</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796256</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>552.807938939214</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324635</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5090151927147</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6068,22 +6068,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034533</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.023426718941</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.119390118278</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O24" t="n">
-        <v>2332.995865118473</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>930.48582603165</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193143</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369212</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390108</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335697</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2429.412499335697</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.954262074191</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>2019.269773868305</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.852603831344</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.863052933327</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.070473789797</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,13 +6214,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.258820896356</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127625</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6247,7 +6247,7 @@
         <v>4151.951912946813</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6265,13 +6265,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L27" t="n">
-        <v>572.0050724668126</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M27" t="n">
-        <v>1164.023426718941</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N27" t="n">
-        <v>1786.119390118278</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O27" t="n">
-        <v>2332.995865118473</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5128849845635</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C28" t="n">
-        <v>615.5767020566566</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D28" t="n">
-        <v>465.4600626443208</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E28" t="n">
-        <v>317.5469690619277</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F28" t="n">
-        <v>235.7210651131766</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
         <v>235.7210651131766</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033129</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747511</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062238</v>
+        <v>2140.336285650424</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856351</v>
+        <v>1885.651797444537</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.943479856351</v>
+        <v>1596.234627407576</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.953928958333</v>
+        <v>1368.245076509559</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.1613498148032</v>
+        <v>1147.452497366029</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160605</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6469,7 +6469,7 @@
         <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M29" t="n">
         <v>2234.298471234009</v>
@@ -6548,19 +6548,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="L30" t="n">
-        <v>241.4963299034533</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849103</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284247</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>930.48582603165</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193143</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369212</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390108</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135896</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6648,25 +6648,25 @@
         <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2273.954262074191</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.954262074191</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.954262074191</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.269773868305</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6715,10 +6715,10 @@
         <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q32" t="n">
         <v>4566.333620403612</v>
@@ -6785,19 +6785,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="L33" t="n">
-        <v>241.4963299034533</v>
+        <v>373.2380436180293</v>
       </c>
       <c r="M33" t="n">
-        <v>734.6951238849103</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284247</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476028</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9524904749385</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9524904749385</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E34" t="n">
         <v>407.9524904749385</v>
@@ -6882,28 +6882,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>2338.526873197482</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>2049.450659512209</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1794.766171306322</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.224468905844</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.261951965432</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1589.996253358682</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.208000760438</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2220959708301</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>379.2389888872365</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251941</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128767</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018653</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957691</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874798</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333938</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021287</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127294</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304033</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.913419421675</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.704271100994</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.260941820543</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.198054476972</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.429399206858</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3093.963640945778</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>942.6241165038822</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>768.1710872227552</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>619.2366775615039</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>459.9992225560485</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829334</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>177.684414342863</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608067</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779269</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K36" t="n">
-        <v>570.9683475412862</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L36" t="n">
-        <v>1061.700680385038</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="M36" t="n">
-        <v>1355.754362358721</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N36" t="n">
-        <v>1355.754362358721</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O36" t="n">
-        <v>1902.630837358916</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2706.26437691594</v>
+        <v>746.1252502501707</v>
       </c>
       <c r="C37" t="n">
-        <v>2537.328193988033</v>
+        <v>577.1890673222638</v>
       </c>
       <c r="D37" t="n">
-        <v>2387.211554575697</v>
+        <v>427.072427909928</v>
       </c>
       <c r="E37" t="n">
-        <v>2305.017010119944</v>
+        <v>279.1593343275349</v>
       </c>
       <c r="F37" t="n">
-        <v>2305.017010119944</v>
+        <v>132.2693868296246</v>
       </c>
       <c r="G37" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>2383.999133009498</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>2643.627859980062</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>3031.389678063196</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>3450.619270107656</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>3865.315135899363</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>4232.337592914393</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>4522.868027750598</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>4640.581161304033</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>4572.721816262535</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S37" t="n">
-        <v>4389.551626001466</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T37" t="n">
-        <v>4169.872843715848</v>
+        <v>2209.733717050079</v>
       </c>
       <c r="U37" t="n">
-        <v>3880.796630030575</v>
+        <v>1920.657503364806</v>
       </c>
       <c r="V37" t="n">
-        <v>3626.112141824688</v>
+        <v>1665.973015158919</v>
       </c>
       <c r="W37" t="n">
-        <v>3336.694971787727</v>
+        <v>1376.555845121958</v>
       </c>
       <c r="X37" t="n">
-        <v>3108.70542088971</v>
+        <v>1148.566294223941</v>
       </c>
       <c r="Y37" t="n">
-        <v>2887.91284174618</v>
+        <v>927.7737150804104</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.224468905844</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.261951965432</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.996253358682</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.208000760438</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2220959708301</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>379.2389888872365</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608067</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251944</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>841.937882512877</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.457663018653</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957691</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874799</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333938</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021287</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127294</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304033</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.913419421675</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.704271100994</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.260941820543</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.198054476972</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.429399206858</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.963640945778</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>942.6241165038822</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>768.1710872227552</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>619.2366775615039</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>459.9992225560485</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829334</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>177.684414342863</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>240.4596049779269</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>570.9683475412862</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L39" t="n">
-        <v>763.7360081065925</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M39" t="n">
-        <v>1355.754362358721</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N39" t="n">
-        <v>1355.754362358721</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O39" t="n">
-        <v>1902.630837358916</v>
+        <v>2002.487122555114</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.214355784993</v>
+        <v>2422.070640981191</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2767.034246025668</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C40" t="n">
-        <v>2767.034246025668</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D40" t="n">
-        <v>2767.034246025668</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E40" t="n">
-        <v>2619.121152443275</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F40" t="n">
-        <v>2472.231204945365</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>2305.017010119944</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>2383.999133009498</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>2643.627859980062</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>3031.389678063196</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>3450.619270107656</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>3865.315135899363</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>4232.337592914393</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>4522.868027750598</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>4640.581161304033</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>4572.721816262535</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S40" t="n">
-        <v>4389.551626001466</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T40" t="n">
-        <v>4169.872843715848</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U40" t="n">
-        <v>3880.796630030575</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V40" t="n">
-        <v>3626.112141824688</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W40" t="n">
-        <v>3336.694971787727</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X40" t="n">
-        <v>3108.70542088971</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y40" t="n">
-        <v>2887.91284174618</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2266.424947555051</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1897.46243061464</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1539.196732007889</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.408479409645</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>742.4225746200375</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>328.4394675364439</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251948</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128779</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018654</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957693</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.7472028748</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333939</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021287</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127294</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304033</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070882</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4353.904749750201</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4100.46142046975</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3769.398533126179</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3416.629877856065</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.164119594985</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2653.024787619173</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>942.6241165038822</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.1710872227552</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>619.2366775615039</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>459.9992225560485</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>177.684414342863</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608067</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J42" t="n">
-        <v>240.4596049779269</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K42" t="n">
-        <v>240.4596049779269</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4596049779269</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M42" t="n">
-        <v>832.4779592300551</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N42" t="n">
-        <v>1454.573922629392</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O42" t="n">
-        <v>2001.450397629587</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2421.033916055664</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.7074548523152</v>
+        <v>1035.542420287132</v>
       </c>
       <c r="C43" t="n">
-        <v>675.7074548523152</v>
+        <v>866.6062373592247</v>
       </c>
       <c r="D43" t="n">
-        <v>525.5908154399795</v>
+        <v>716.4895979468889</v>
       </c>
       <c r="E43" t="n">
-        <v>525.5908154399795</v>
+        <v>568.5765043644958</v>
       </c>
       <c r="F43" t="n">
-        <v>484.5294206134845</v>
+        <v>421.6865568665854</v>
       </c>
       <c r="G43" t="n">
-        <v>317.3152257880633</v>
+        <v>254.4723620411643</v>
       </c>
       <c r="H43" t="n">
-        <v>175.4425088264938</v>
+        <v>112.5996450795947</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608067</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>171.7937461156347</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>431.4224730861986</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>819.1842911693332</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.413883213793</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1653.1097490055</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2020.13220602053</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.662640856734</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2428.375774410169</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.516429368671</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.346239107601</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T43" t="n">
-        <v>1957.667456821983</v>
+        <v>2209.733717050079</v>
       </c>
       <c r="U43" t="n">
-        <v>1668.59124313671</v>
+        <v>1920.657503364806</v>
       </c>
       <c r="V43" t="n">
-        <v>1413.906754930823</v>
+        <v>1665.973015158919</v>
       </c>
       <c r="W43" t="n">
-        <v>1124.489584893863</v>
+        <v>1665.973015158919</v>
       </c>
       <c r="X43" t="n">
-        <v>896.5000339958453</v>
+        <v>1437.983464260901</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.7074548523152</v>
+        <v>1217.190885117371</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>424.1437450015135</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612973</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>573.0441050413353</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>746.1252502501707</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>577.1890673222638</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>427.072427909928</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2209.733717050079</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1920.657503364806</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1665.973015158919</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.02150088521</v>
+        <v>1376.555845121958</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1148.566294223941</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>927.7737150804104</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8461,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782908238</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>51.31264782908272</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782908272</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782908374</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.10708298209547</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23199,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>41.30204999791849</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>223.0785320781984</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>14.17433268472004</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>190.6813450477645</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>285.5081910261788</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>124.6059346478801</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>230.2649742281866</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.6859761770153</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>296.7574771839105</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>158.5424700727124</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>132.28179665953</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>50.47721991512137</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>64.41340311366767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>94.61558506065181</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.97502887069017</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>127.5052245859292</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.29152613728476</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.06136363537306</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>127.5052245859296</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.29152613728476</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.16217041863104</v>
+        <v>16.98870227488794</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>50.29152613728465</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>104.7702671447012</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.24079278570116</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.5052245859296</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>764829.5403202327</v>
+        <v>1056113.400119555</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764829.5403202327</v>
+        <v>1056113.400119555</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>764829.5403202327</v>
+        <v>1033722.494307033</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823272.5892503086</v>
+        <v>823272.5892503087</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>823272.5892503085</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>823272.5892503085</v>
+        <v>973716.0216158091</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973716.0216158093</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973716.0216158092</v>
+        <v>973716.0216158091</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973716.0216158091</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>968095.2776857368</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>968095.2776857367</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>968095.2776857368</v>
+        <v>973716.0216158093</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973455.4713481062</v>
+        <v>973716.0216158092</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680128</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680129</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680127</v>
+        <v>443675.6374152075</v>
       </c>
       <c r="H2" t="n">
-        <v>375096.8088680127</v>
+        <v>443675.6374152074</v>
       </c>
       <c r="I2" t="n">
-        <v>443675.6374152077</v>
+        <v>443675.6374152076</v>
       </c>
       <c r="J2" t="n">
         <v>443675.6374152076</v>
@@ -26343,19 +26343,19 @@
         <v>443675.6374152076</v>
       </c>
       <c r="L2" t="n">
+        <v>443675.6374152075</v>
+      </c>
+      <c r="M2" t="n">
         <v>443675.6374152076</v>
       </c>
-      <c r="M2" t="n">
-        <v>441473.8744009173</v>
-      </c>
       <c r="N2" t="n">
-        <v>441473.8744009172</v>
+        <v>443675.6374152076</v>
       </c>
       <c r="O2" t="n">
-        <v>441473.8744009174</v>
+        <v>443675.6374152077</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443675.6374152077</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503535</v>
+        <v>445640.2295734512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>302227.6816144026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>292801.6957235676</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925941</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>35924.03279328578</v>
+        <v>39153.48277254669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82231.14374388763</v>
       </c>
       <c r="P3" t="n">
-        <v>9581.698610698271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71376.38478147393</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>71376.38478147394</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>71376.38478147394</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5500.795347005323</v>
@@ -26432,34 +26432,34 @@
         <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5500.795347005323</v>
+        <v>6494.028029047313</v>
       </c>
       <c r="H4" t="n">
-        <v>5500.795347005323</v>
+        <v>6494.028029047313</v>
       </c>
       <c r="I4" t="n">
-        <v>6494.028029047186</v>
+        <v>6494.028029047313</v>
       </c>
       <c r="J4" t="n">
-        <v>6494.028029047186</v>
+        <v>6494.028029047189</v>
       </c>
       <c r="K4" t="n">
+        <v>6494.028029047185</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6494.028029047177</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6494.028029047182</v>
+      </c>
+      <c r="N4" t="n">
         <v>6494.028029047183</v>
       </c>
-      <c r="L4" t="n">
-        <v>6494.028029047186</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5671.003945457393</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5671.003945457393</v>
-      </c>
       <c r="O4" t="n">
-        <v>5671.003945457393</v>
+        <v>6494.028029047182</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>6494.028029047199</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,13 +26484,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100142.1285138385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100142.1285138385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100142.1285138385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-426135.4710420944</v>
+        <v>-431176.3993156314</v>
       </c>
       <c r="C6" t="n">
-        <v>163832.4081724501</v>
+        <v>158791.4798989132</v>
       </c>
       <c r="D6" t="n">
-        <v>163832.4081724501</v>
+        <v>2987.673805118277</v>
       </c>
       <c r="E6" t="n">
-        <v>-323670.6429907393</v>
+        <v>-153826.7459118981</v>
       </c>
       <c r="F6" t="n">
-        <v>295289.6729596141</v>
+        <v>291813.4836615532</v>
       </c>
       <c r="G6" t="n">
-        <v>295289.6729596141</v>
+        <v>33664.91849587594</v>
       </c>
       <c r="H6" t="n">
-        <v>295289.6729596141</v>
+        <v>335892.6001102784</v>
       </c>
       <c r="I6" t="n">
-        <v>43449.87420535431</v>
+        <v>335892.6001102786</v>
       </c>
       <c r="J6" t="n">
-        <v>159828.3507363289</v>
+        <v>159469.3809176847</v>
       </c>
       <c r="K6" t="n">
-        <v>336251.5699289218</v>
+        <v>335892.6001102787</v>
       </c>
       <c r="L6" t="n">
-        <v>336251.5699289218</v>
+        <v>335892.6001102786</v>
       </c>
       <c r="M6" t="n">
-        <v>299736.7091483356</v>
+        <v>296739.117337732</v>
       </c>
       <c r="N6" t="n">
-        <v>335660.7419416213</v>
+        <v>335892.6001102788</v>
       </c>
       <c r="O6" t="n">
-        <v>335660.7419416216</v>
+        <v>253661.4563663912</v>
       </c>
       <c r="P6" t="n">
-        <v>327548.8648282154</v>
+        <v>335892.6001102789</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,13 +26752,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1358.041048716387</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26822,16 +26822,16 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1160.145290326008</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1160.145290326008</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326008</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26965,25 +26965,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>496.3006002552332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>268.2643481230889</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625286783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.702896492795</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>341.7028964927952</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>144.1551210786575</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.702896492795</v>
       </c>
       <c r="P4" t="n">
-        <v>12.56299777364006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.702896492795</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>155.5563883290112</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>103.5798492039701</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>319.3810331793612</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>539.3575949355015</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>357.021366583313</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,10 +33028,10 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504309</v>
@@ -33043,7 +33043,7 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>357.021366583313</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M30" t="n">
-        <v>640.314633903288</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927647</v>
@@ -33283,7 +33283,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754055</v>
       </c>
       <c r="M33" t="n">
-        <v>640.314633903288</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
@@ -33520,7 +33520,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735821</v>
@@ -33742,13 +33742,13 @@
         <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1579551075565</v>
+        <v>538.3080670824452</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426213</v>
@@ -33757,7 +33757,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,16 +33976,16 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>333.2691884316987</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426213</v>
@@ -33994,7 +33994,7 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286956</v>
+        <v>273.0542121815526</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.45946150237743</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122288</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874069</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830437</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364271</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293318</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229617</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086961</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687531</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148612</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987166</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
         <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901944</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,37 +34207,37 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J42" t="n">
-        <v>275.977002173582</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>360.5518110958039</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504308</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927645</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426212</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982459</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.0542121815531</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862165</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
         <v>11.77395965821094</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291845</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548569</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284932</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273334</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900888</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
         <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265025</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
         <v>374.7525405416878</v>
@@ -34310,19 +34310,19 @@
         <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561744</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
         <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851332</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
         <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704644</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>360.5518110958038</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286971</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845846</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>397.2235610134832</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>223.0469591689828</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284126</v>
@@ -36691,7 +36691,7 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>223.0469591689828</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>677.090203895523</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311419</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
         <v>744.732300926371</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M30" t="n">
-        <v>498.1805999812698</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094314</v>
@@ -36931,7 +36931,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,13 +37083,13 @@
         <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160918</v>
       </c>
       <c r="P32" t="n">
         <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
         <v>127.3573607845846</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>133.0724380955314</v>
       </c>
       <c r="M33" t="n">
-        <v>498.1805999812698</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
@@ -37168,7 +37168,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870094</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069154</v>
@@ -37390,13 +37390,13 @@
         <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>297.0239211855382</v>
+        <v>396.1740331604269</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981769</v>
@@ -37405,7 +37405,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311419</v>
       </c>
       <c r="N38" t="n">
         <v>744.732300926371</v>
@@ -37624,16 +37624,16 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>194.7148086518245</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981769</v>
@@ -37642,7 +37642,7 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426741</v>
+        <v>133.0724380955311</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607206</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380631</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.77755606644</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020591</v>
+        <v>779.6000841311419</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263707</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870093</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134835</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404117</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845845</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069153</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>221.9974313159298</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284124</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094313</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981768</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839156</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.0724380955315</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066066</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.251239364206</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
         <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883431</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209164</v>
@@ -37958,7 +37958,7 @@
         <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>333.6317139898044</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>221.9974313159296</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066788</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
